--- a/product_management_template.xlsx
+++ b/product_management_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2dcb6fc2c51f2c2f/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\DFC Expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{B8F6AB3F-9708-400C-B1A3-D16FDE245F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23584588-8893-4CF1-9BF3-F44B96EB7D5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85676AB5-B64C-4254-9E26-246D9803A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Purchase Entries'!$A$1:$I$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -383,10 +382,10 @@
     <t>Sandwich Box</t>
   </si>
   <si>
-    <t>wrap Box</t>
-  </si>
-  <si>
     <t>Prit Vihar</t>
+  </si>
+  <si>
+    <t>Butter Papper</t>
   </si>
 </sst>
 </file>
@@ -780,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1517,7 +1516,7 @@
         <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1535,7 +1534,7 @@
         <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1553,7 +1552,7 @@
         <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1571,7 +1570,7 @@
         <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1579,17 +1578,17 @@
         <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="3"/>
-        <v>Packing_Product_5_ wrap Box</v>
+        <v>Packing_Product_5_ Butter Papper</v>
       </c>
       <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" t="s">
         <v>118</v>
-      </c>
-      <c r="E41" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1685,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1913,7 +1912,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
-        <f>F7*E7</f>
+        <f t="shared" ref="I7:I21" si="0">F7*E7</f>
         <v>70</v>
       </c>
     </row>
@@ -1944,7 +1943,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
-        <f>F8*E8</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -1975,7 +1974,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <f>F9*E9</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -2006,7 +2005,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
-        <f>F10*E10</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -2037,7 +2036,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
-        <f>F11*E11</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -2068,7 +2067,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
-        <f>F12*E12</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
@@ -2099,7 +2098,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
-        <f>F13*E13</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
@@ -2130,7 +2129,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
-        <f>F14*E14</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
@@ -2161,7 +2160,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
-        <f>F15*E15</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
@@ -2192,7 +2191,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
-        <f>F16*E16</f>
+        <f t="shared" si="0"/>
         <v>151</v>
       </c>
     </row>
@@ -2223,7 +2222,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
-        <f>F17*E17</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2254,7 +2253,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
-        <f>F18*E18</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
@@ -2285,7 +2284,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
-        <f>F19*E19</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -2316,7 +2315,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
-        <f>F20*E20</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
@@ -2347,7 +2346,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
-        <f>F21*E21</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
